--- a/Library/excelTestCasesSystemTest_RTM.xlsx
+++ b/Library/excelTestCasesSystemTest_RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="22356" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -84,9 +84,6 @@
     <t>TC013</t>
   </si>
   <si>
-    <t>Radiology\TC001GenerateUSGReport.py</t>
-  </si>
-  <si>
     <t>TC014</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>TC023</t>
   </si>
   <si>
-    <t>Pharmacy\Reports\TC003DepositBalanceReport.py</t>
-  </si>
-  <si>
     <t>TC024</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>TC027</t>
   </si>
   <si>
-    <t>Pharmacy\Reports\TC009StockManageDetailReport.py</t>
-  </si>
-  <si>
     <t>TC028</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>TC032</t>
   </si>
   <si>
-    <t>Reports\TC001BillingDashboardSummary.py</t>
-  </si>
-  <si>
     <t>TC033</t>
   </si>
   <si>
@@ -270,9 +258,6 @@
     <t>Manual Status</t>
   </si>
   <si>
-    <t>Pharmacy\Reports\TC011VerifyStockItemsReport.py</t>
-  </si>
-  <si>
     <t>Bug No</t>
   </si>
   <si>
@@ -297,12 +282,6 @@
     <t>Billing\OPbilling\TC008BillingSaleDepositDeductPlusTenderCashReturn.py</t>
   </si>
   <si>
-    <t>Billing\OPbilling\TC011CreateCopyOfItemsCashInvoice.py</t>
-  </si>
-  <si>
-    <t>Billing\OPbilling\TC012CreateCopyOfItemsCreditInvoice.py</t>
-  </si>
-  <si>
     <t>TC047</t>
   </si>
   <si>
@@ -318,9 +297,6 @@
     <t>Billing\Opbilling\TC013returnOPCashBilling.py</t>
   </si>
   <si>
-    <t>TC049</t>
-  </si>
-  <si>
     <t>Billing\OPbilling\TC014OPbillingCreditSettlements.py</t>
   </si>
   <si>
@@ -330,18 +306,9 @@
     <t>Billing\IPbilling\TC003returnIPcashBilling.py</t>
   </si>
   <si>
-    <t>TC050</t>
-  </si>
-  <si>
-    <t>TC051</t>
-  </si>
-  <si>
     <t>Incentive\TC001VerifyTransactionReport.py</t>
   </si>
   <si>
-    <t>TC052</t>
-  </si>
-  <si>
     <t>TC No</t>
   </si>
   <si>
@@ -354,31 +321,10 @@
     <t>Incentive\TC003VerifyPatientVsServiceReport.py</t>
   </si>
   <si>
-    <t>TC053</t>
-  </si>
-  <si>
-    <t>TC054</t>
-  </si>
-  <si>
     <t>Pharmacy\TC012CancelPharmacyGoodsReceipt.py</t>
   </si>
   <si>
-    <t>TC055</t>
-  </si>
-  <si>
-    <t>Inventory\Reports\TC002CurrentStockLevelReport.py</t>
-  </si>
-  <si>
     <t>Scripting Status</t>
-  </si>
-  <si>
-    <t>Inventory\Reports\TC003 InventorySummaryReport.py</t>
-  </si>
-  <si>
-    <t>TC056</t>
-  </si>
-  <si>
-    <t>TC057</t>
   </si>
   <si>
     <t>Inventory\TC001CreateGoodReceipt.py</t>
@@ -466,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -479,7 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -761,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,19 +735,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>116</v>
+        <v>79</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -810,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -830,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -850,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -867,10 +812,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -887,10 +832,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -907,10 +852,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -927,10 +872,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -947,10 +892,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -967,10 +912,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -987,10 +932,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -1007,10 +952,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1027,10 +972,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -1047,10 +992,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -1067,19 +1012,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1087,19 +1032,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1107,19 +1052,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1127,19 +1072,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1147,19 +1092,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1167,19 +1112,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1187,19 +1132,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1207,19 +1152,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1227,19 +1172,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1247,19 +1192,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1267,10 +1212,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -1279,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1287,10 +1232,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -1299,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1307,10 +1252,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -1319,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1327,10 +1272,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -1339,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1347,10 +1292,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -1359,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1367,10 +1312,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -1379,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1387,10 +1332,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -1399,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1407,10 +1352,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -1419,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1427,10 +1372,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -1439,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1447,10 +1392,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -1459,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1467,10 +1412,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -1479,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1487,10 +1432,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -1499,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1507,10 +1452,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -1519,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1527,10 +1472,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -1539,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1547,10 +1492,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -1559,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1567,10 +1512,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -1579,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1587,10 +1532,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -1599,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -1607,10 +1552,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -1619,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1627,10 +1572,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -1639,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1647,10 +1592,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -1659,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1667,10 +1612,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -1679,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -1687,10 +1632,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -1699,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1707,10 +1652,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -1719,18 +1664,18 @@
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>83</v>
+      <c r="A48" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -1739,18 +1684,18 @@
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>97</v>
+      <c r="A49" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -1759,191 +1704,11 @@
         <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Library/excelTestCasesSystemTest_RTM.xlsx
+++ b/Library/excelTestCasesSystemTest_RTM.xlsx
@@ -9,17 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22356" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="23292" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="122">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -337,6 +341,54 @@
   </si>
   <si>
     <t>Billing\OPbilling\TC009CreateEstimationBill.py</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Incentive</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of Status</t>
   </si>
 </sst>
 </file>
@@ -412,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -426,6 +478,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,6 +498,709 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ACER" refreshedDate="44622.66303009259" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="49">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I1048576" sheet="test"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="TestCaseName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="Norun"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Run No" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="TC No" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Manual Status" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Bug No" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Scripting Status" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Module Name" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="Appointment"/>
+        <s v="Patient"/>
+        <s v="Billing"/>
+        <s v="Laboratory"/>
+        <s v="Pharmacy"/>
+        <s v="ADT"/>
+        <s v="Nursing"/>
+        <s v="Inventory"/>
+        <s v="Reports"/>
+        <s v="Incentive"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="49">
+  <r>
+    <s v="Appointment\TC001CreateAppointmentNew.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC001"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Appointment\TC002CreateAppointmentFollowup.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC002"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Patient\TC001PatientRegistrationPrintHealthCard.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC003"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Billing\OPbilling\TC002OPDbillingLabXray.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC004"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\OPbilling\TC004ReturnVisitInvoice.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC005"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\OPbilling\TC006BillingSaleDepositDeduct.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC006"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\OPbilling\TC007BillingSaleDepositDeductPlusTender.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC007"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\OPbilling\TC008BillingSaleDepositDeductPlusTenderCashReturn.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC008"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\OPbilling\TC009CreateEstimationBill.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC009"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\IPbilling\TC010CancelIPProvisionalBill.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC010"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Laboratory\TC005GenerateLabReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC011"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC003PharmacyOPDbilling.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC012"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC001AddNewDrug.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC013"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC002ReturnPharmacyInvoice.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC014"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC004PharmacyStoreManageItem.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC015"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC005PharmacyStockTransfer.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC016"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC006PharmacyDeposit&amp;Return.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC017"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC007CreatePharmacyGoodsReceipt.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC018"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\TC012CancelPharmacyGoodsReceipt.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC019"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\Reports\TC001CashCollectionSummaryReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC020"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\Reports\TC002UserCollectionReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC021"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\Reports\TC006Opening&amp;EndingStockSummaryReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC022"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\Reports\TC007NarcoticStockReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC023"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Pharmacy\Reports\TC008NarcoticDailySalesReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC024"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="ADT\TC009AdmissionDischargeTransferToBeRefund.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC025"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="ADT\TC011AdmissionDischargeTransferNoDeposit.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC026"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Nursing\TC001WardBilling&amp;AddVitals.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC027"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Inventory\TC001CreateGoodReceipt.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC028"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Reports\TC002TotalItemsBillReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC029"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC003SalesDayBookReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC030"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC004PatientCensusReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC031"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC005IncomeSegregationReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC032"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC006PatientCreditSummaryReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC033"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC007DoctorSummaryReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC034"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC008DiscountReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC035"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC009DepositBalanceReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC036"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC010DepartmentSummaryReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC037"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC011UserCollectionReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC038"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Reports\TC012TotalAdmittedPatientsReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC039"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Billing\IPbilling\TC001IPbillingCalculationCash.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC040"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\IPbilling\TC002IPbillingCalculationCredit.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC041"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\Opbilling\TC013returnOPCashBilling.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC042"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\OPbilling\TC014OPbillingCreditSettlements.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC043"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\IPbilling\TC003returnIPcashBilling.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC044"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Billing\Ipbilling\TC004IPbillingCreditSettlements.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC045"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Incentive\TC001VerifyTransactionReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC046"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Incentive\TC002VerifyPaymentReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC047"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Incentive\TC003VerifyPatientVsServiceReport.py"/>
+    <x v="0"/>
+    <s v="SystemTest"/>
+    <n v="0"/>
+    <s v="TC048"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Status" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -706,25 +1466,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="9">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="9">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="9">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,8 +1693,11 @@
       <c r="H1" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -769,8 +1716,11 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -789,8 +1739,11 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -809,8 +1762,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
@@ -829,8 +1785,11 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>83</v>
       </c>
@@ -849,8 +1808,11 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>84</v>
       </c>
@@ -869,8 +1831,11 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -889,8 +1854,11 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>86</v>
       </c>
@@ -909,8 +1877,11 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>105</v>
       </c>
@@ -929,8 +1900,11 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>103</v>
       </c>
@@ -949,8 +1923,11 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -969,8 +1946,11 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -989,8 +1969,11 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1009,8 +1992,11 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1029,8 +2015,11 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1049,8 +2038,11 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1069,8 +2061,11 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1089,8 +2084,11 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1109,8 +2107,11 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>100</v>
       </c>
@@ -1129,8 +2130,11 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1149,8 +2153,11 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -1169,8 +2176,11 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1189,8 +2199,11 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -1209,8 +2222,11 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -1229,8 +2245,11 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1249,8 +2268,11 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
@@ -1269,8 +2291,11 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
@@ -1289,8 +2314,11 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>102</v>
       </c>
@@ -1309,8 +2337,11 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
@@ -1329,8 +2360,11 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
@@ -1349,8 +2383,11 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
@@ -1369,8 +2406,11 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -1389,8 +2429,11 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -1409,8 +2452,11 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>66</v>
       </c>
@@ -1429,8 +2475,11 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
@@ -1449,8 +2498,11 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
@@ -1469,8 +2521,11 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -1489,8 +2544,11 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -1509,8 +2567,11 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
@@ -1529,8 +2590,11 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
@@ -1549,8 +2613,11 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>89</v>
       </c>
@@ -1569,8 +2636,11 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
@@ -1589,8 +2659,11 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>92</v>
       </c>
@@ -1609,8 +2682,11 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
@@ -1629,8 +2705,11 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -1649,8 +2728,11 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
@@ -1669,8 +2751,11 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>98</v>
       </c>
@@ -1689,8 +2774,11 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -1709,6 +2797,9 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
